--- a/data/trans_camb/PCS12_SP_R2-Clase-trans_camb.xlsx
+++ b/data/trans_camb/PCS12_SP_R2-Clase-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-11,74; 2,48</t>
+          <t>-11,13; 2,5</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-12,22; 1,2</t>
+          <t>-12,13; 0,45</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,14; 11,5</t>
+          <t>-1,09; 11,98</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-13,62; 2,57</t>
+          <t>-13,93; 3,23</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-22,91; -7,28</t>
+          <t>-22,67; -6,54</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-12,13; 1,3</t>
+          <t>-12,54; 1,21</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-9,99; 0,11</t>
+          <t>-10,0; 0,64</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-14,8; -4,55</t>
+          <t>-15,01; -4,88</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-3,35; 5,76</t>
+          <t>-4,01; 5,38</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-26,23; 6,72</t>
+          <t>-25,66; 6,61</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-28,27; 3,21</t>
+          <t>-28,14; 1,11</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-2,54; 31,47</t>
+          <t>-2,57; 31,17</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-26,28; 5,72</t>
+          <t>-26,48; 7,85</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-43,48; -15,92</t>
+          <t>-43,54; -14,81</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-22,8; 3,11</t>
+          <t>-23,27; 3,15</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-21,63; 0,22</t>
+          <t>-21,41; 1,63</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-31,87; -10,72</t>
+          <t>-32,78; -11,54</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-7,21; 14,24</t>
+          <t>-8,61; 12,85</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,09; 13,76</t>
+          <t>-2,91; 12,02</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-13,73; 0,8</t>
+          <t>-14,64; 0,8</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,51; 10,7</t>
+          <t>-4,21; 11,08</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-7,22; 8,05</t>
+          <t>-7,19; 8,12</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-10,33; 3,92</t>
+          <t>-11,09; 4,42</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-1,42; 10,76</t>
+          <t>-2,59; 10,62</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-2,38; 8,24</t>
+          <t>-2,4; 8,2</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-10,07; 0,22</t>
+          <t>-9,97; 0,18</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-1,07; 8,56</t>
+          <t>-0,94; 8,52</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-4,92; 38,0</t>
+          <t>-6,69; 34,04</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-31,6; 2,36</t>
+          <t>-33,75; 1,7</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-8,23; 29,96</t>
+          <t>-9,68; 31,18</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-17,29; 21,89</t>
+          <t>-16,27; 21,82</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-23,45; 10,52</t>
+          <t>-25,05; 11,83</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-3,29; 29,48</t>
+          <t>-6,09; 28,61</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-5,67; 21,95</t>
+          <t>-5,49; 21,69</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-23,64; 0,66</t>
+          <t>-23,39; 0,48</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-2,58; 22,47</t>
+          <t>-2,08; 23,03</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,04; 11,93</t>
+          <t>-0,43; 11,65</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-6,42; 6,17</t>
+          <t>-6,28; 5,85</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>2,28; 44,41</t>
+          <t>3,32; 44,67</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-10,25; 9,65</t>
+          <t>-9,84; 9,86</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-19,83; 3,09</t>
+          <t>-21,32; 1,72</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-7,79; 12,66</t>
+          <t>-8,81; 12,01</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-0,39; 10,35</t>
+          <t>0,15; 9,99</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-7,89; 3,02</t>
+          <t>-7,71; 3,18</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>3,28; 39,31</t>
+          <t>2,83; 37,62</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-0,15; 28,63</t>
+          <t>-0,84; 28,75</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-13,46; 15,09</t>
+          <t>-13,63; 14,17</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>4,89; 110,57</t>
+          <t>7,34; 109,82</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-16,66; 18,61</t>
+          <t>-15,96; 19,22</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-32,72; 5,87</t>
+          <t>-34,28; 3,4</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-12,45; 25,4</t>
+          <t>-14,17; 24,33</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-0,81; 23,68</t>
+          <t>0,21; 22,51</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-15,81; 6,7</t>
+          <t>-15,51; 7,14</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>6,98; 92,72</t>
+          <t>5,89; 84,17</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-4,76; 3,83</t>
+          <t>-4,69; 3,67</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-8,65; -0,34</t>
+          <t>-8,36; -0,54</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-4,17; 4,58</t>
+          <t>-4,1; 4,94</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-11,53; -1,16</t>
+          <t>-11,1; -0,81</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-14,52; -4,79</t>
+          <t>-14,89; -4,52</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-3,62; 26,45</t>
+          <t>-3,8; 26,71</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-5,72; 0,83</t>
+          <t>-5,78; 0,84</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-9,54; -2,93</t>
+          <t>-9,47; -3,29</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-1,39; 17,18</t>
+          <t>-1,3; 18,78</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-9,58; 8,48</t>
+          <t>-9,45; 8,1</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-17,28; -0,54</t>
+          <t>-16,89; -1,22</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-8,26; 9,82</t>
+          <t>-8,25; 10,75</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-20,28; -2,27</t>
+          <t>-19,5; -1,2</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-25,69; -9,16</t>
+          <t>-26,19; -8,86</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-6,65; 50,34</t>
+          <t>-6,82; 50,56</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-10,95; 1,74</t>
+          <t>-11,27; 1,79</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-18,44; -6,1</t>
+          <t>-17,99; -6,77</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-2,78; 34,9</t>
+          <t>-2,59; 37,73</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-9,97; 4,92</t>
+          <t>-9,77; 4,74</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-14,47; -1,14</t>
+          <t>-14,24; -0,96</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-3,75; 11,85</t>
+          <t>-3,08; 11,38</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-2,08; 9,29</t>
+          <t>-2,58; 9,11</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-9,11; 1,9</t>
+          <t>-8,78; 1,79</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-19,29; 4,56</t>
+          <t>-19,22; 4,63</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-3,25; 5,1</t>
+          <t>-3,36; 5,33</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-10,27; -1,58</t>
+          <t>-10,26; -1,51</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-12,12; 4,73</t>
+          <t>-9,59; 5,06</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-18,85; 10,76</t>
+          <t>-18,49; 10,83</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-26,56; -2,49</t>
+          <t>-26,96; -1,88</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-7,12; 26,2</t>
+          <t>-6,06; 24,8</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-3,37; 16,74</t>
+          <t>-3,99; 16,55</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-14,53; 3,4</t>
+          <t>-14,42; 3,27</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-32,28; 7,25</t>
+          <t>-31,59; 8,17</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-5,68; 9,72</t>
+          <t>-5,78; 10,07</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-17,91; -2,84</t>
+          <t>-18,0; -2,89</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-21,27; 8,56</t>
+          <t>-17,38; 9,58</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-0,58; 13,21</t>
+          <t>-0,97; 13,19</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-3,94; 10,18</t>
+          <t>-3,55; 9,92</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-5,73; 14,23</t>
+          <t>-5,99; 13,42</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-9,11; -1,24</t>
+          <t>-9,15; -1,07</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-15,57; -7,5</t>
+          <t>-15,97; -7,45</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-12,72; -3,79</t>
+          <t>-13,14; -4,27</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-7,17; 0,35</t>
+          <t>-6,54; 0,8</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-12,61; -5,56</t>
+          <t>-12,61; -5,73</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-12,5; -3,82</t>
+          <t>-12,01; -3,36</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-4,06; 90,13</t>
+          <t>-4,75; 96,15</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-19,85; 70,3</t>
+          <t>-17,41; 67,57</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-29,45; 93,02</t>
+          <t>-29,37; 88,63</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-13,6; -1,93</t>
+          <t>-13,86; -1,73</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-23,25; -11,86</t>
+          <t>-23,82; -11,72</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-19,1; -5,95</t>
+          <t>-19,61; -6,72</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-12,37; 0,65</t>
+          <t>-11,58; 1,35</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-21,94; -9,83</t>
+          <t>-21,95; -10,41</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-21,67; -6,96</t>
+          <t>-21,21; -6,36</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-1,25; 3,84</t>
+          <t>-1,09; 3,78</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-6,14; -1,09</t>
+          <t>-6,08; -1,26</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>2,46; 17,67</t>
+          <t>2,65; 19,74</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-5,15; -0,42</t>
+          <t>-5,29; -0,31</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-11,86; -7,0</t>
+          <t>-11,59; -6,85</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-6,55; 5,94</t>
+          <t>-6,27; 7,33</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-2,48; 1,15</t>
+          <t>-2,31; 1,13</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-8,28; -4,82</t>
+          <t>-8,01; -4,74</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-1,0; 8,78</t>
+          <t>-1,14; 8,31</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-2,8; 9,29</t>
+          <t>-2,52; 9,11</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-13,88; -2,65</t>
+          <t>-13,72; -2,94</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>5,64; 42,91</t>
+          <t>6,1; 48,45</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-8,86; -0,79</t>
+          <t>-9,13; -0,55</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-20,32; -12,48</t>
+          <t>-20,18; -12,31</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-11,38; 10,78</t>
+          <t>-10,85; 13,04</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-4,94; 2,33</t>
+          <t>-4,63; 2,29</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-16,17; -9,79</t>
+          <t>-15,81; -9,62</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-2,03; 17,45</t>
+          <t>-2,33; 16,82</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/PCS12_SP_R2-Clase-trans_camb.xlsx
+++ b/data/trans_camb/PCS12_SP_R2-Clase-trans_camb.xlsx
@@ -1702,7 +1702,7 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
